--- a/product_db.xlsx
+++ b/product_db.xlsx
@@ -546,10 +546,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A7" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
